--- a/Data/Rawdata/PMS_V2.xlsx
+++ b/Data/Rawdata/PMS_V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\project\Corestem project - ALS RMAT analysis\Data\Rawdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\project\Corestem project - RMAT analysis\Data\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Group_subset" sheetId="3" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="687">
   <si>
     <t>MND</t>
   </si>
@@ -2319,14 +2319,6 @@
     <t>Tx_4th</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>Change_of_slope</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBJ_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -2954,7 +2946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3646,6 +3638,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -8537,7 +8532,7 @@
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8569,9 +8564,6 @@
       <c r="G1" s="212" t="s">
         <v>490</v>
       </c>
-      <c r="H1" t="s">
-        <v>687</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
       <c r="A2" s="219">
@@ -9748,7 +9740,6 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9757,7 +9748,7 @@
   <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13416,13 +13407,13 @@
         <v>29</v>
       </c>
       <c r="K68" s="241">
-        <v>43553</v>
+        <v>43581</v>
       </c>
       <c r="L68" s="241">
         <v>28</v>
       </c>
       <c r="M68" s="241">
-        <v>43581</v>
+        <v>43607</v>
       </c>
       <c r="N68" s="241"/>
       <c r="O68" s="241"/>
@@ -15352,13 +15343,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="229" t="s">
-        <v>688</v>
+      <c r="A1" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="B1" s="229" t="s">
         <v>497</v>
@@ -21579,7 +21572,9 @@
       <c r="B197" s="233" t="s">
         <v>540</v>
       </c>
-      <c r="C197" s="234"/>
+      <c r="C197" s="247">
+        <v>29</v>
+      </c>
       <c r="D197" s="233">
         <v>28</v>
       </c>
@@ -21655,7 +21650,10 @@
   <dimension ref="A1:BS83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AT53" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BE74" sqref="BE74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30382,8 +30380,8 @@
       <c r="X62" s="241">
         <v>1.375</v>
       </c>
-      <c r="Y62" s="241" t="e">
-        <v>#REF!</v>
+      <c r="Y62" s="241">
+        <v>0</v>
       </c>
       <c r="Z62" s="241"/>
       <c r="AA62" s="241"/>
@@ -30990,7 +30988,7 @@
         <v>43238</v>
       </c>
       <c r="AY66" s="241">
-        <f t="shared" ref="AY66:AY97" si="4">ROUND((AX66-D66)/30.5,0)</f>
+        <f t="shared" ref="AY66:AY83" si="4">ROUND((AX66-D66)/30.5,0)</f>
         <v>-8</v>
       </c>
       <c r="AZ66" s="241">
@@ -31282,7 +31280,7 @@
         <v>29</v>
       </c>
       <c r="BA68" s="241">
-        <v>43553</v>
+        <v>43581</v>
       </c>
       <c r="BB68" s="241">
         <v>-1</v>
@@ -31291,7 +31289,7 @@
         <v>28</v>
       </c>
       <c r="BD68" s="241">
-        <v>43581</v>
+        <v>43607</v>
       </c>
       <c r="BE68" s="241"/>
       <c r="BF68" s="241"/>
@@ -31308,11 +31306,11 @@
       <c r="BQ68" s="241"/>
       <c r="BR68" s="243">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="BS68" s="243">
         <f t="shared" si="6"/>
-        <v>-1555.4642857142858</v>
+        <v>-1556.4642857142858</v>
       </c>
     </row>
     <row r="69" spans="1:71">
@@ -41823,6 +41821,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -71929,7 +71928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
@@ -74037,7 +74036,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -74550,7 +74549,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
